--- a/Lab06/Values.xlsx
+++ b/Lab06/Values.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g_tec/Git/PLK_lab/Lab06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6CDF4-85AE-9446-85D2-8350571D28A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E7D29-9DB2-3C48-B0B6-9A3AD196A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1040" windowWidth="40800" windowHeight="23840" xr2:uid="{F90744CF-1659-FF47-8C08-B79023287C2F}"/>
+    <workbookView xWindow="14720" yWindow="1040" windowWidth="26240" windowHeight="23840" xr2:uid="{F90744CF-1659-FF47-8C08-B79023287C2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Part 1 NewEncoding" sheetId="2" r:id="rId1"/>
-    <sheet name="Part 1 OldEncoding" sheetId="1" r:id="rId2"/>
+    <sheet name="Part 1 OldEncoding" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 2 Output" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>State encodeing</t>
   </si>
@@ -924,240 +924,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>' = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>' = w(!Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t xml:space="preserve"> + Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t xml:space="preserve"> + Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t xml:space="preserve"> + Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t xml:space="preserve"> + Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>' = !w(!Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t xml:space="preserve"> + Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t xml:space="preserve"> + Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t xml:space="preserve"> + Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t xml:space="preserve"> + Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Encoding</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +962,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1228,11 +998,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1254,6 +1046,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1589,10 +1387,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC1FF89-D4C6-3A4D-88B4-9C0C06D1AA11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51441F12-2035-EA48-A213-746C8A596A13}">
   <dimension ref="B2:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
@@ -1759,7 +1557,7 @@
         <v>34</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1823,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="2">
         <v>0</v>
@@ -1856,10 +1654,10 @@
         <v>1</v>
       </c>
       <c r="AI4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -1891,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1923,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2">
         <v>1</v>
@@ -1956,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="5" t="s">
         <v>36</v>
@@ -1991,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2023,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="X6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <v>0</v>
@@ -2056,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="5" t="s">
         <v>37</v>
@@ -2091,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2123,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="X7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="2">
         <v>1</v>
@@ -2156,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="5" t="s">
         <v>38</v>
@@ -2191,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2223,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="2">
         <v>0</v>
@@ -2256,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="AI8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -2291,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2323,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="2">
         <v>1</v>
@@ -2356,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="5" t="s">
         <v>40</v>
@@ -2391,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2423,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="2">
         <v>0</v>
@@ -2456,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="5" t="s">
         <v>41</v>
@@ -2491,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -2523,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
         <v>1</v>
@@ -2556,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="5" t="s">
         <v>42</v>
@@ -2591,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -2623,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="2">
         <v>0</v>
@@ -2656,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -2688,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="2">
         <v>1</v>
@@ -2721,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -2753,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="2">
         <v>0</v>
@@ -2786,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="AI14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -2818,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="2">
         <v>1</v>
@@ -2851,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -2883,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="2">
         <v>0</v>
@@ -2916,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="AI16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -2948,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="2">
         <v>1</v>
@@ -2981,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -3013,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="2">
         <v>0</v>
@@ -3046,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="AI18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -3078,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="2">
         <v>1</v>
@@ -3111,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -3143,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="2">
         <v>0</v>
@@ -3176,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="AI20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -3208,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="2">
         <v>1</v>
@@ -3241,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3255,35 +3053,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51441F12-2035-EA48-A213-746C8A596A13}">
-  <dimension ref="B2:AK21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B676E5-25A1-3541-B91B-230BFE4DFB2B}">
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="118" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="11" width="5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="30" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="1" customWidth="1"/>
-    <col min="16" max="24" width="5" style="1" customWidth="1"/>
-    <col min="25" max="26" width="10" style="1" customWidth="1"/>
-    <col min="27" max="35" width="5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.83203125" style="1"/>
-    <col min="37" max="37" width="55" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="11" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8"/>
+    <row r="2" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -3292,143 +3080,40 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="M2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AK2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3457,78 +3142,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3557,78 +3174,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3657,78 +3206,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3757,78 +3238,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3857,78 +3270,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -3957,78 +3302,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4057,78 +3334,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -4157,78 +3366,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="22" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4257,664 +3398,273 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2" t="s">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2" t="s">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:37" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>1</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2" t="s">
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2" t="s">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="15:35" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>0</v>
-      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="Z2:AI2"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
